--- a/精算.xlsx
+++ b/精算.xlsx
@@ -151,7 +151,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2442" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2443" uniqueCount="307">
   <si>
     <t>その他</t>
     <rPh sb="2" eb="3">
@@ -2286,6 +2286,10 @@
     <t>KFC</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>KFC</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -2870,7 +2874,7 @@
   <dimension ref="A1:G257"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D250" sqref="D250"/>
+      <selection activeCell="A272" sqref="A272"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" outlineLevelRow="2" x14ac:dyDescent="0.15"/>
@@ -2921,7 +2925,7 @@
       </c>
       <c r="F2" s="16">
         <f t="shared" ref="F2:G2" si="1">SUM(F3:F930)</f>
-        <v>226.3</v>
+        <v>231.3</v>
       </c>
       <c r="G2" s="16">
         <f t="shared" si="1"/>
@@ -5317,7 +5321,7 @@
       </c>
       <c r="F257" s="3">
         <f>'202012'!$O$2</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G257" s="3">
         <f>'202012'!$R$2</f>
@@ -14245,7 +14249,7 @@
   <dimension ref="A1:V33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -14329,7 +14333,7 @@
       <c r="M2" s="43"/>
       <c r="O2" s="42">
         <f>SUM(P:P)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P2" s="43"/>
       <c r="R2" s="42">
@@ -14395,8 +14399,12 @@
       <c r="J5" s="8"/>
       <c r="L5" s="17"/>
       <c r="M5" s="8"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="8"/>
+      <c r="O5" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="P5" s="8">
+        <v>5</v>
+      </c>
       <c r="R5" s="17"/>
       <c r="S5" s="8"/>
     </row>
@@ -14998,11 +15006,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="O2:P2"/>
     <mergeCell ref="R2:S2"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="F1:G1"/>
@@ -15010,6 +15013,11 @@
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="R1:S1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="O2:P2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/精算.xlsx
+++ b/精算.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13035" tabRatio="758"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13035" tabRatio="758" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="精算データ" sheetId="5" r:id="rId1"/>
@@ -151,7 +151,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2443" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2449" uniqueCount="308">
   <si>
     <t>その他</t>
     <rPh sb="2" eb="3">
@@ -2290,6 +2290,10 @@
     <t>KFC</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>スターバックス</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -2873,7 +2877,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G257"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A272" sqref="A272"/>
     </sheetView>
   </sheetViews>
@@ -2921,11 +2925,11 @@
       </c>
       <c r="E2" s="16">
         <f t="shared" si="0"/>
-        <v>-301</v>
+        <v>-325</v>
       </c>
       <c r="F2" s="16">
         <f t="shared" ref="F2:G2" si="1">SUM(F3:F930)</f>
-        <v>231.3</v>
+        <v>288.3</v>
       </c>
       <c r="G2" s="16">
         <f t="shared" si="1"/>
@@ -5317,11 +5321,11 @@
       </c>
       <c r="E257" s="3">
         <f>'202012'!$L$2</f>
-        <v>0</v>
+        <v>-24</v>
       </c>
       <c r="F257" s="3">
         <f>'202012'!$O$2</f>
-        <v>5</v>
+        <v>62</v>
       </c>
       <c r="G257" s="3">
         <f>'202012'!$R$2</f>
@@ -14248,8 +14252,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -14328,12 +14332,12 @@
       <c r="K2" s="14"/>
       <c r="L2" s="42">
         <f>SUM(M:M)</f>
-        <v>0</v>
+        <v>-24</v>
       </c>
       <c r="M2" s="43"/>
       <c r="O2" s="42">
         <f>SUM(P:P)</f>
-        <v>5</v>
+        <v>62</v>
       </c>
       <c r="P2" s="43"/>
       <c r="R2" s="42">
@@ -14701,8 +14705,12 @@
       <c r="G20" s="8"/>
       <c r="I20" s="17"/>
       <c r="J20" s="8"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="8"/>
+      <c r="L20" s="17" t="s">
+        <v>307</v>
+      </c>
+      <c r="M20" s="8">
+        <v>-22</v>
+      </c>
       <c r="O20" s="17"/>
       <c r="P20" s="8"/>
       <c r="R20" s="17"/>
@@ -14767,8 +14775,12 @@
       <c r="G23" s="8"/>
       <c r="I23" s="17"/>
       <c r="J23" s="8"/>
-      <c r="L23" s="18"/>
-      <c r="M23" s="8"/>
+      <c r="L23" s="17" t="s">
+        <v>307</v>
+      </c>
+      <c r="M23" s="8">
+        <v>-22</v>
+      </c>
       <c r="O23" s="17"/>
       <c r="P23" s="8"/>
       <c r="R23" s="17"/>
@@ -14815,8 +14827,12 @@
       <c r="J25" s="8"/>
       <c r="L25" s="17"/>
       <c r="M25" s="8"/>
-      <c r="O25" s="18"/>
-      <c r="P25" s="8"/>
+      <c r="O25" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="P25" s="8">
+        <v>19</v>
+      </c>
       <c r="R25" s="40"/>
       <c r="S25" s="33"/>
       <c r="T25" s="41"/>
@@ -14838,8 +14854,12 @@
       <c r="J26" s="8"/>
       <c r="L26" s="17"/>
       <c r="M26" s="8"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="8"/>
+      <c r="O26" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="P26" s="8">
+        <v>19</v>
+      </c>
       <c r="R26" s="40"/>
       <c r="S26" s="33"/>
       <c r="T26" s="41"/>
@@ -14861,8 +14881,12 @@
       <c r="J27" s="8"/>
       <c r="L27" s="17"/>
       <c r="M27" s="8"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="8"/>
+      <c r="O27" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="P27" s="8">
+        <v>19</v>
+      </c>
       <c r="R27" s="17"/>
       <c r="S27" s="8"/>
       <c r="T27" s="41"/>
@@ -14974,8 +14998,12 @@
       <c r="G32" s="8"/>
       <c r="I32" s="17"/>
       <c r="J32" s="8"/>
-      <c r="L32" s="17"/>
-      <c r="M32" s="8"/>
+      <c r="L32" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="M32" s="8">
+        <v>20</v>
+      </c>
       <c r="O32" s="18"/>
       <c r="P32" s="8"/>
       <c r="R32" s="17"/>
